--- a/BKUP/Samuel/Chrome Passwords.xlsx
+++ b/BKUP/Samuel/Chrome Passwords.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="NEWS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -28,39 +28,15 @@
     <t>password</t>
   </si>
   <si>
-    <t>Desk ID</t>
-  </si>
-  <si>
-    <t>rulesofsurvival.16163.com</t>
-  </si>
-  <si>
-    <t>https://rulesofsurvival.16163.com/member.php</t>
-  </si>
-  <si>
-    <t>jandyboy</t>
-  </si>
-  <si>
-    <t>coolerthanmeyou0911</t>
-  </si>
-  <si>
     <t>www.facebook.com</t>
   </si>
   <si>
-    <t>https://www.facebook.com/login/device-based/regular/login/</t>
-  </si>
-  <si>
     <t>honeyqoh25</t>
   </si>
   <si>
     <t>https://www.facebook.com/</t>
   </si>
   <si>
-    <t>cityofbayawan@gmail.com</t>
-  </si>
-  <si>
-    <t>etyhre62345</t>
-  </si>
-  <si>
     <t>kimberlydequina@yahoo.com</t>
   </si>
   <si>
@@ -136,21 +112,6 @@
     <t>Dogfink789</t>
   </si>
   <si>
-    <t>ph.via.com</t>
-  </si>
-  <si>
-    <t>https://ph.via.com/_login</t>
-  </si>
-  <si>
-    <t>edwardtorreda@gmail.com</t>
-  </si>
-  <si>
-    <t>MRG124578</t>
-  </si>
-  <si>
-    <t>Merlita</t>
-  </si>
-  <si>
     <t>https://accounts.google.com</t>
   </si>
   <si>
@@ -191,6 +152,9 @@
   </si>
   <si>
     <t>www.streamlikers.cc</t>
+  </si>
+  <si>
+    <t>mamapapaloveyou</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1008,7 @@
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,13 +1021,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1075,77 +1036,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>9264632360</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>9268106141</v>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1153,220 +1114,163 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>2019000155</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>2019000155</v>
+        <v>9266455914</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>9753756970</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>9363805891</v>
+      </c>
+      <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>9367653559</v>
+      </c>
+      <c r="D18" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19">
-        <v>9266455914</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20">
-        <v>9753756970</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21">
-        <v>9363805891</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="C18" r:id="rId2"/>
-    <hyperlink ref="A19" r:id="rId3"/>
-    <hyperlink ref="A20" r:id="rId4"/>
-    <hyperlink ref="B20" r:id="rId5"/>
-    <hyperlink ref="A21" r:id="rId6"/>
-    <hyperlink ref="A22" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="A14" r:id="rId3"/>
+    <hyperlink ref="A15" r:id="rId4"/>
+    <hyperlink ref="B15" r:id="rId5"/>
+    <hyperlink ref="A16" r:id="rId6"/>
+    <hyperlink ref="A17" r:id="rId7"/>
+    <hyperlink ref="B18" r:id="rId8"/>
+    <hyperlink ref="A18" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
